--- a/login.xlsx
+++ b/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15240" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Student Name</t>
   </si>
@@ -70,51 +70,6 @@
   </si>
   <si>
     <t>9999 99999999</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>ggryrty</t>
-  </si>
-  <si>
-    <t>tyyry</t>
-  </si>
-  <si>
-    <t>tt5656</t>
-  </si>
-  <si>
-    <t>tytyrtyy</t>
-  </si>
-  <si>
-    <t>yrtyrtyrt</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>tyrty</t>
-  </si>
-  <si>
-    <t>tryryrtyy</t>
-  </si>
-  <si>
-    <t>yyrtyrty</t>
-  </si>
-  <si>
-    <t>rtytr</t>
-  </si>
-  <si>
-    <t>yrrtt</t>
-  </si>
-  <si>
-    <t>rtyrtyrty</t>
-  </si>
-  <si>
-    <t>yrtyrt</t>
-  </si>
-  <si>
-    <t>trrt</t>
   </si>
 </sst>
 </file>
@@ -446,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,139 +414,76 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>645645</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>5465464</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>6654654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>6546546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>6654646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>665446645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
